--- a/analyses/metagomics/susvsink/ja2/go_report_ja2_06.26.18.xlsx
+++ b/analyses/metagomics/susvsink/ja2/go_report_ja2_06.26.18.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganduffy/Documents/git-repos/2017-etnp/analyses/metagomics/susvsink/ja2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D1D73B-D19B-EA42-ACC5-F9F6AA85F37E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B665C8-CED2-F043-8B8E-20F7B2B0C19D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="3080" windowWidth="27640" windowHeight="16940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4360" yWindow="4940" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="go_report_ja2_06.26.18" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="molecular function" sheetId="4" r:id="rId4"/>
     <sheet name="compiled" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12849" uniqueCount="4283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12855" uniqueCount="4285">
   <si>
     <t>GO acc</t>
   </si>
@@ -12873,6 +12873,12 @@
   </si>
   <si>
     <t>contractile ring</t>
+  </si>
+  <si>
+    <t>extracellular</t>
+  </si>
+  <si>
+    <t>counts</t>
   </si>
 </sst>
 </file>
@@ -56558,7 +56564,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -87319,11 +87325,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F333"/>
+  <dimension ref="A1:I333"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -87334,7 +87340,7 @@
     <col min="7" max="7" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="33" customHeight="1">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="33" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -87354,7 +87360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>3175</v>
       </c>
@@ -87373,8 +87379,11 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="I2" t="s">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>3084</v>
       </c>
@@ -87393,8 +87402,15 @@
       <c r="F3">
         <v>0.669368456602499</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="H3" t="s">
+        <v>4208</v>
+      </c>
+      <c r="I3">
+        <f>SUM(D14,D15,D24,D34,D104,D133,D145,D196,D214,D247,D306,D317)</f>
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>3790</v>
       </c>
@@ -87413,8 +87429,15 @@
       <c r="F4">
         <v>0.33029381965552101</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="H4" t="s">
+        <v>4224</v>
+      </c>
+      <c r="I4">
+        <f>SUM(D26,D35,D41,D47,D50,D65,D114,D208,D300)</f>
+        <v>864</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>3720</v>
       </c>
@@ -87433,8 +87456,15 @@
       <c r="F5">
         <v>0.29854778790948999</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="H5" t="s">
+        <v>3922</v>
+      </c>
+      <c r="I5">
+        <f>SUM(D8,D9,D11,D12,D13,D23,D25,D39,D40,D41,D42,D51,D55,D56,D57,D63,D65,D66,D67,D69,D81,D83,D86,D91,D94,D103,D117,D132,D131,D134,D133,D152,D161,D162,D163,D164,D188,D208,D227,D230,D245,D307,D312,D308,D310,D317,D319,D325,D326)</f>
+        <v>4836</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>3230</v>
       </c>
@@ -87453,8 +87483,15 @@
       <c r="F6">
         <v>0.23370482944950999</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="H6" t="s">
+        <v>3225</v>
+      </c>
+      <c r="I6">
+        <f>SUM(D31,D88,D89,D105,D117,D131)</f>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>3510</v>
       </c>
@@ -87473,8 +87510,15 @@
       <c r="F7">
         <v>0.20871327254305899</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="H7" t="s">
+        <v>4283</v>
+      </c>
+      <c r="I7">
+        <f>SUM(D32,D73,D78,D80,D81,D82,D100,D101,D102,D149)</f>
+        <v>629</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>3921</v>
       </c>
@@ -87494,7 +87538,7 @@
         <v>0.18034447821681801</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>3722</v>
       </c>
@@ -87514,7 +87558,7 @@
         <v>0.16852414724755099</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>3754</v>
       </c>
@@ -87534,7 +87578,7 @@
         <v>0.16176967240796999</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>3097</v>
       </c>
@@ -87554,7 +87598,7 @@
         <v>0.15467747382641001</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>3382</v>
       </c>
@@ -87574,7 +87618,7 @@
         <v>0.14319486659912101</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>3600</v>
       </c>
@@ -87594,7 +87638,7 @@
         <v>0.14319486659912101</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>3762</v>
       </c>
@@ -87614,7 +87658,7 @@
         <v>0.13069908814589601</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>3242</v>
       </c>
@@ -87634,7 +87678,7 @@
         <v>0.12225599459642</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>3494</v>
       </c>
@@ -94006,7 +94050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F270"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
